--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Maximum Absolute Difference</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/maximum-absolute-difference/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/spiral-order-matrix-ii/</t>
   </si>
 </sst>
 </file>
@@ -40,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -61,6 +68,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,17 +139,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.4897959183674"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -152,9 +160,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/maximum-absolute-difference/"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/spiral-order-matrix-ii/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Maximum Absolute Difference</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/spiral-order-matrix-ii/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/rearrange-array/</t>
   </si>
 </sst>
 </file>
@@ -139,17 +145,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,10 +173,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/maximum-absolute-difference/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/spiral-order-matrix-ii/"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/rearrange-array/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Maximum Absolute Difference</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/rearrange-array/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City Tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/city-tour/</t>
   </si>
 </sst>
 </file>
@@ -145,16 +151,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -181,11 +188,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/maximum-absolute-difference/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/spiral-order-matrix-ii/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/rearrange-array/"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/city-tour/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Maximum Absolute Difference</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/city-tour/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid Unique Paths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/grid-unique-paths/</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
@@ -196,12 +202,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/maximum-absolute-difference/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/spiral-order-matrix-ii/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/rearrange-array/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/city-tour/"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/grid-unique-paths/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Maximum Absolute Difference</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/grid-unique-paths/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trailing zeros in a factorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/trailing-zeros-in-factorial/</t>
   </si>
 </sst>
 </file>
@@ -157,10 +163,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -210,6 +216,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/maximum-absolute-difference/"/>
@@ -217,6 +231,7 @@
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/rearrange-array/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/city-tour/"/>
     <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/grid-unique-paths/"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://www.interviewbit.com/problems/trailing-zeros-in-factorial/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Maximum Absolute Difference</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/trailing-zeros-in-factorial/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next permutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/next-permutation/</t>
   </si>
 </sst>
 </file>
@@ -163,17 +169,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,6 +228,14 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -232,6 +246,7 @@
     <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/city-tour/"/>
     <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/grid-unique-paths/"/>
     <hyperlink ref="B6" r:id="rId6" display="https://www.interviewbit.com/problems/trailing-zeros-in-factorial/"/>
+    <hyperlink ref="B7" r:id="rId7" display="https://www.interviewbit.com/problems/next-permutation/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Maximum Absolute Difference</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/next-permutation/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Booking Possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/hotel-bookings-possible/</t>
   </si>
 </sst>
 </file>
@@ -169,10 +175,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -238,6 +244,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/maximum-absolute-difference/"/>
@@ -247,6 +261,7 @@
     <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/grid-unique-paths/"/>
     <hyperlink ref="B6" r:id="rId6" display="https://www.interviewbit.com/problems/trailing-zeros-in-factorial/"/>
     <hyperlink ref="B7" r:id="rId7" display="https://www.interviewbit.com/problems/next-permutation/"/>
+    <hyperlink ref="B8" r:id="rId8" display="https://www.interviewbit.com/problems/hotel-bookings-possible/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Maximum Absolute Difference</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/hotel-bookings-possible/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rainwater tapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/rain-water-trapped/</t>
   </si>
 </sst>
 </file>
@@ -175,17 +181,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,6 +256,14 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -262,6 +276,7 @@
     <hyperlink ref="B6" r:id="rId6" display="https://www.interviewbit.com/problems/trailing-zeros-in-factorial/"/>
     <hyperlink ref="B7" r:id="rId7" display="https://www.interviewbit.com/problems/next-permutation/"/>
     <hyperlink ref="B8" r:id="rId8" display="https://www.interviewbit.com/problems/hotel-bookings-possible/"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://www.interviewbit.com/problems/rain-water-trapped/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
